--- a/powerlifting/12周德州分割训练法.xlsx
+++ b/powerlifting/12周德州分割训练法.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\罗祎\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Plan&amp;arrange\Plan\powerlifting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902209C6-F47C-45F9-9586-413DC9F77045}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F445EDF7-1609-4C78-8023-4EBDD71BB98E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>周一</t>
   </si>
@@ -47,9 +47,6 @@
     <t>坐姿哑铃推举</t>
   </si>
   <si>
-    <t>三头直杆下压</t>
-  </si>
-  <si>
     <t>周二</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>8到12</t>
   </si>
   <si>
-    <t>高位下拉</t>
-  </si>
-  <si>
     <t>周四</t>
   </si>
   <si>
@@ -88,6 +82,54 @@
   </si>
   <si>
     <t>sumo硬拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight：自重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窄距卧推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight：45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight：55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight：40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引体向上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight：16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight：12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight：65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight：100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight：52.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,6 +198,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,49 +480,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="7" width="9.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -483,81 +551,102 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -568,7 +657,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -577,26 +669,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -604,10 +702,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -615,29 +716,49 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28">
         <v>1</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:T1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
